--- a/espn/src/main/resources/ESPNnbapageElements.xlsx
+++ b/espn/src/main/resources/ESPNnbapageElements.xlsx
@@ -5,15 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\AutomationFramework_Team3\espn\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B186A46-725C-4D86-801B-CCACEB136846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA3DC9-1CC2-42EB-A5EB-FC20AD10FE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{841C09D1-F1A0-4BA4-885F-2C224B0C9277}"/>
+    <workbookView xWindow="26940" yWindow="-120" windowWidth="2400" windowHeight="585" firstSheet="12" activeTab="12" xr2:uid="{841C09D1-F1A0-4BA4-885F-2C224B0C9277}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESPNnbaTitle" sheetId="1" r:id="rId1"/>
+    <sheet name="ESPNPlusList" sheetId="2" r:id="rId2"/>
+    <sheet name="QuickLinksTitles" sheetId="3" r:id="rId3"/>
+    <sheet name="StatsList" sheetId="4" r:id="rId4"/>
+    <sheet name="TeamCategories" sheetId="5" r:id="rId5"/>
+    <sheet name="PodcastsTitles" sheetId="6" r:id="rId6"/>
+    <sheet name="FantasyTitles" sheetId="7" r:id="rId7"/>
+    <sheet name="ESPNSites" sheetId="8" r:id="rId8"/>
+    <sheet name="ESPNApps" sheetId="9" r:id="rId9"/>
+    <sheet name="FollowESPN" sheetId="10" r:id="rId10"/>
+    <sheet name="ESPNFooter" sheetId="11" r:id="rId11"/>
+    <sheet name="NBADropdownMenuLinksLeft" sheetId="12" r:id="rId12"/>
+    <sheet name="NBADropdownMenuItemsLeft" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,12 +42,325 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+  <si>
+    <t>NBA - National Basketball Association Teams, Scores, Stats, News, Standings, Rumors - ESPN</t>
+  </si>
+  <si>
+    <t>Detail: 1998 Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Classic Bulls games</t>
+  </si>
+  <si>
+    <t>NBA Rooks</t>
+  </si>
+  <si>
+    <t>The Boardroom: Season 2</t>
+  </si>
+  <si>
+    <t>30 for 30: Basketball</t>
+  </si>
+  <si>
+    <t>NBA's Plan to Return</t>
+  </si>
+  <si>
+    <t>The Last Dance</t>
+  </si>
+  <si>
+    <t>Remembering Kobe</t>
+  </si>
+  <si>
+    <t>HoF Class of 2020</t>
+  </si>
+  <si>
+    <t>NBA.com</t>
+  </si>
+  <si>
+    <t>Season Leaders</t>
+  </si>
+  <si>
+    <t>NBA BPI</t>
+  </si>
+  <si>
+    <t>BPI Playoff Odds</t>
+  </si>
+  <si>
+    <t>Real Plus-Minus</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Altanta Hawks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Northwest</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>The Woj Pod</t>
+  </si>
+  <si>
+    <t>The Lowe Post</t>
+  </si>
+  <si>
+    <t>Brian Windhorst &amp; The Hoop Collective</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>ESPN Deportes</t>
+  </si>
+  <si>
+    <t>The Undefeated</t>
+  </si>
+  <si>
+    <t>espnW</t>
+  </si>
+  <si>
+    <t>ESPNFC</t>
+  </si>
+  <si>
+    <t>SEC Network</t>
+  </si>
+  <si>
+    <t>X Games</t>
+  </si>
+  <si>
+    <t>ESPN</t>
+  </si>
+  <si>
+    <t>ESPN Fantasy</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Quibi</t>
+  </si>
+  <si>
+    <t>The ESPN Daily Podcast</t>
+  </si>
+  <si>
+    <t>The ESPN Daily Newsletter</t>
+  </si>
+  <si>
+    <t>ESPN Daily Calendar</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>Private Policy</t>
+  </si>
+  <si>
+    <t>Your California Provacy Rights</t>
+  </si>
+  <si>
+    <t>Children's Online Private Policy</t>
+  </si>
+  <si>
+    <t>Interest-Based Ads</t>
+  </si>
+  <si>
+    <t>About Nielsen Measurement</t>
+  </si>
+  <si>
+    <t>Do Not Sell My Info</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/story/_/id/28911848/when-nba-return-latest-updates-amid-coronavirus-suspension</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/story/_/id/28973557/the-last-dance-updates-untold-story-michael-jordan-chicago-bulls</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/scoreboard</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/schedule</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/standings</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/stats</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/nba/teams</t>
+  </si>
+  <si>
+    <t>http://www.espn.com/nba/draft/news</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Orlando Playoffs</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Standings</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,13 +383,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,10 +707,733 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC600D7D-495D-4E29-BC6D-A5F216841368}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655798CC-C67A-428E-AA08-B5B63F0529F1}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B6A2A-8C0F-4286-842C-1635809E973A}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2417F96D-A1D5-49D1-A255-EF17CF03DF0C}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{B5BEE0F4-D4DC-4845-BE0A-94B67566F311}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{5ECCC3F2-44FE-4436-B172-242AC66C6228}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F42A393-49F9-4EB6-96B0-6A7935700EAE}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE60E0F-3EFE-4424-BEB6-CADC365FF835}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0547A90-9E63-427E-894F-9901F768A4D3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF0CF5-17C8-450D-8B4E-96DF766FE9B6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C42AF3-84FB-4923-8C1D-1204C316A41B}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B0583-5DDC-4E68-97A6-B1CCC3BA710E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629AE9F-EF23-4344-ACCD-BEB4A3E210F1}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FD9B0-5CD5-42CC-AE19-74819635C405}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD13E01-AC15-4B4B-8C0E-EBEB4B98362B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>